--- a/歩行イメージ.xlsx
+++ b/歩行イメージ.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="歩行" sheetId="1" r:id="rId1"/>
+    <sheet name="旋回" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>前</t>
     <rPh sb="0" eb="1">
@@ -203,12 +203,76 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>左旋回①</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>センカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案①うごうご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左旋回②</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>センカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左旋回③</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>センカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左旋回④</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>センカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左旋回⑤</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>センカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これが一番回れる</t>
+    <rPh sb="3" eb="5">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,8 +287,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,6 +314,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -379,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -394,6 +477,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -697,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+    <sheetView topLeftCell="D2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1873,14 +1959,862 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10">
+        <v>9</v>
+      </c>
+      <c r="F3" s="10">
+        <v>7</v>
+      </c>
+      <c r="G3" s="10">
+        <v>9</v>
+      </c>
+      <c r="H3" s="10">
+        <v>7</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>3</v>
+      </c>
+      <c r="E5" s="14">
+        <v>10</v>
+      </c>
+      <c r="F5" s="14">
+        <v>8</v>
+      </c>
+      <c r="G5" s="14">
+        <v>10</v>
+      </c>
+      <c r="H5" s="14">
+        <v>8</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>3</v>
+      </c>
+      <c r="E6" s="10">
+        <v>9</v>
+      </c>
+      <c r="F6" s="10">
+        <v>7</v>
+      </c>
+      <c r="G6" s="10">
+        <v>9</v>
+      </c>
+      <c r="H6" s="10">
+        <v>7</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
+        <v>3</v>
+      </c>
+      <c r="E7" s="14">
+        <v>10</v>
+      </c>
+      <c r="F7" s="14">
+        <v>8</v>
+      </c>
+      <c r="G7" s="14">
+        <v>10</v>
+      </c>
+      <c r="H7" s="14">
+        <v>8</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10">
+        <v>3</v>
+      </c>
+      <c r="E8" s="10">
+        <v>9</v>
+      </c>
+      <c r="F8" s="10">
+        <v>7</v>
+      </c>
+      <c r="G8" s="10">
+        <v>9</v>
+      </c>
+      <c r="H8" s="10">
+        <v>7</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
+        <v>3</v>
+      </c>
+      <c r="E9" s="14">
+        <v>10</v>
+      </c>
+      <c r="F9" s="14">
+        <v>8</v>
+      </c>
+      <c r="G9" s="14">
+        <v>10</v>
+      </c>
+      <c r="H9" s="14">
+        <v>8</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
+        <v>3</v>
+      </c>
+      <c r="E11" s="14">
+        <v>10</v>
+      </c>
+      <c r="F11" s="14">
+        <v>8</v>
+      </c>
+      <c r="G11" s="14">
+        <v>10</v>
+      </c>
+      <c r="H11" s="14">
+        <v>8</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C12" s="15">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
+        <v>3</v>
+      </c>
+      <c r="E12" s="10">
+        <v>9</v>
+      </c>
+      <c r="F12" s="10">
+        <v>7</v>
+      </c>
+      <c r="G12" s="10">
+        <v>9</v>
+      </c>
+      <c r="H12" s="10">
+        <v>7</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10">
+        <v>3</v>
+      </c>
+      <c r="E13" s="10">
+        <v>9</v>
+      </c>
+      <c r="F13" s="10">
+        <v>7</v>
+      </c>
+      <c r="G13" s="10">
+        <v>9</v>
+      </c>
+      <c r="H13" s="10">
+        <v>7</v>
+      </c>
+      <c r="I13" s="10">
+        <v>1</v>
+      </c>
+      <c r="J13" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C14" s="15">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
+        <v>3</v>
+      </c>
+      <c r="E14" s="14">
+        <v>10</v>
+      </c>
+      <c r="F14" s="14">
+        <v>8</v>
+      </c>
+      <c r="G14" s="14">
+        <v>10</v>
+      </c>
+      <c r="H14" s="14">
+        <v>8</v>
+      </c>
+      <c r="I14" s="15">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C15" s="15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10">
+        <v>3</v>
+      </c>
+      <c r="E15" s="10">
+        <v>9</v>
+      </c>
+      <c r="F15" s="10">
+        <v>7</v>
+      </c>
+      <c r="G15" s="10">
+        <v>9</v>
+      </c>
+      <c r="H15" s="10">
+        <v>7</v>
+      </c>
+      <c r="I15" s="15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10">
+        <v>3</v>
+      </c>
+      <c r="E16" s="10">
+        <v>9</v>
+      </c>
+      <c r="F16" s="10">
+        <v>7</v>
+      </c>
+      <c r="G16" s="10">
+        <v>9</v>
+      </c>
+      <c r="H16" s="10">
+        <v>7</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
+      <c r="J16" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0</v>
+      </c>
+      <c r="D18" s="10">
+        <v>3</v>
+      </c>
+      <c r="E18" s="10">
+        <v>9</v>
+      </c>
+      <c r="F18" s="14">
+        <v>8</v>
+      </c>
+      <c r="G18" s="10">
+        <v>9</v>
+      </c>
+      <c r="H18" s="14">
+        <v>8</v>
+      </c>
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C19" s="15">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10">
+        <v>3</v>
+      </c>
+      <c r="E19" s="10">
+        <v>9</v>
+      </c>
+      <c r="F19" s="10">
+        <v>7</v>
+      </c>
+      <c r="G19" s="10">
+        <v>9</v>
+      </c>
+      <c r="H19" s="10">
+        <v>7</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10">
+        <v>3</v>
+      </c>
+      <c r="E20" s="10">
+        <v>9</v>
+      </c>
+      <c r="F20" s="10">
+        <v>7</v>
+      </c>
+      <c r="G20" s="10">
+        <v>9</v>
+      </c>
+      <c r="H20" s="10">
+        <v>7</v>
+      </c>
+      <c r="I20" s="10">
+        <v>1</v>
+      </c>
+      <c r="J20" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C21" s="15">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10">
+        <v>3</v>
+      </c>
+      <c r="E21" s="10">
+        <v>9</v>
+      </c>
+      <c r="F21" s="14">
+        <v>8</v>
+      </c>
+      <c r="G21" s="10">
+        <v>9</v>
+      </c>
+      <c r="H21" s="14">
+        <v>8</v>
+      </c>
+      <c r="I21" s="15">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C22" s="15">
+        <v>0</v>
+      </c>
+      <c r="D22" s="10">
+        <v>3</v>
+      </c>
+      <c r="E22" s="10">
+        <v>9</v>
+      </c>
+      <c r="F22" s="10">
+        <v>7</v>
+      </c>
+      <c r="G22" s="10">
+        <v>9</v>
+      </c>
+      <c r="H22" s="10">
+        <v>7</v>
+      </c>
+      <c r="I22" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C23" s="10">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10">
+        <v>3</v>
+      </c>
+      <c r="E23" s="10">
+        <v>9</v>
+      </c>
+      <c r="F23" s="10">
+        <v>7</v>
+      </c>
+      <c r="G23" s="10">
+        <v>9</v>
+      </c>
+      <c r="H23" s="10">
+        <v>7</v>
+      </c>
+      <c r="I23" s="10">
+        <v>1</v>
+      </c>
+      <c r="J23" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="10">
+        <v>3</v>
+      </c>
+      <c r="E25" s="10">
+        <v>9</v>
+      </c>
+      <c r="F25" s="14">
+        <v>8</v>
+      </c>
+      <c r="G25" s="10">
+        <v>9</v>
+      </c>
+      <c r="H25" s="14">
+        <v>8</v>
+      </c>
+      <c r="I25" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J25" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C26" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="10">
+        <v>3</v>
+      </c>
+      <c r="E26" s="10">
+        <v>9</v>
+      </c>
+      <c r="F26" s="10">
+        <v>7</v>
+      </c>
+      <c r="G26" s="10">
+        <v>9</v>
+      </c>
+      <c r="H26" s="10">
+        <v>7</v>
+      </c>
+      <c r="I26" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J26" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C27" s="10">
+        <v>1</v>
+      </c>
+      <c r="D27" s="10">
+        <v>3</v>
+      </c>
+      <c r="E27" s="10">
+        <v>9</v>
+      </c>
+      <c r="F27" s="10">
+        <v>7</v>
+      </c>
+      <c r="G27" s="10">
+        <v>9</v>
+      </c>
+      <c r="H27" s="10">
+        <v>7</v>
+      </c>
+      <c r="I27" s="10">
+        <v>1</v>
+      </c>
+      <c r="J27" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C28" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="10">
+        <v>3</v>
+      </c>
+      <c r="E28" s="10">
+        <v>9</v>
+      </c>
+      <c r="F28" s="14">
+        <v>8</v>
+      </c>
+      <c r="G28" s="10">
+        <v>9</v>
+      </c>
+      <c r="H28" s="14">
+        <v>8</v>
+      </c>
+      <c r="I28" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J28" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C29" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="10">
+        <v>3</v>
+      </c>
+      <c r="E29" s="10">
+        <v>9</v>
+      </c>
+      <c r="F29" s="10">
+        <v>7</v>
+      </c>
+      <c r="G29" s="10">
+        <v>9</v>
+      </c>
+      <c r="H29" s="10">
+        <v>7</v>
+      </c>
+      <c r="I29" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J29" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C30" s="10">
+        <v>1</v>
+      </c>
+      <c r="D30" s="10">
+        <v>3</v>
+      </c>
+      <c r="E30" s="10">
+        <v>9</v>
+      </c>
+      <c r="F30" s="10">
+        <v>7</v>
+      </c>
+      <c r="G30" s="10">
+        <v>9</v>
+      </c>
+      <c r="H30" s="10">
+        <v>7</v>
+      </c>
+      <c r="I30" s="10">
+        <v>1</v>
+      </c>
+      <c r="J30" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="E32" s="10">
+        <v>9</v>
+      </c>
+      <c r="F32" s="14">
+        <v>7.5</v>
+      </c>
+      <c r="G32" s="10">
+        <v>9</v>
+      </c>
+      <c r="H32" s="14">
+        <v>7.5</v>
+      </c>
+      <c r="I32" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J32" s="15">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C33" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="E33" s="10">
+        <v>9</v>
+      </c>
+      <c r="F33" s="10">
+        <v>7</v>
+      </c>
+      <c r="G33" s="10">
+        <v>9</v>
+      </c>
+      <c r="H33" s="10">
+        <v>7</v>
+      </c>
+      <c r="I33" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J33" s="15">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C34" s="10">
+        <v>1</v>
+      </c>
+      <c r="D34" s="10">
+        <v>3</v>
+      </c>
+      <c r="E34" s="10">
+        <v>9</v>
+      </c>
+      <c r="F34" s="10">
+        <v>7</v>
+      </c>
+      <c r="G34" s="10">
+        <v>9</v>
+      </c>
+      <c r="H34" s="10">
+        <v>7</v>
+      </c>
+      <c r="I34" s="10">
+        <v>1</v>
+      </c>
+      <c r="J34" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C35" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="E35" s="10">
+        <v>9</v>
+      </c>
+      <c r="F35" s="14">
+        <v>7.5</v>
+      </c>
+      <c r="G35" s="10">
+        <v>9</v>
+      </c>
+      <c r="H35" s="14">
+        <v>7.5</v>
+      </c>
+      <c r="I35" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J35" s="15">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C36" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="E36" s="10">
+        <v>9</v>
+      </c>
+      <c r="F36" s="10">
+        <v>7</v>
+      </c>
+      <c r="G36" s="10">
+        <v>9</v>
+      </c>
+      <c r="H36" s="10">
+        <v>7</v>
+      </c>
+      <c r="I36" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J36" s="15">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C37" s="10">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10">
+        <v>3</v>
+      </c>
+      <c r="E37" s="10">
+        <v>9</v>
+      </c>
+      <c r="F37" s="10">
+        <v>7</v>
+      </c>
+      <c r="G37" s="10">
+        <v>9</v>
+      </c>
+      <c r="H37" s="10">
+        <v>7</v>
+      </c>
+      <c r="I37" s="10">
+        <v>1</v>
+      </c>
+      <c r="J37" s="10">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/歩行イメージ.xlsx
+++ b/歩行イメージ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t>前</t>
     <rPh sb="0" eb="1">
@@ -264,6 +264,13 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>マワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1959,13 +1966,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J37"/>
+  <dimension ref="A2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
@@ -2681,7 +2691,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C33" s="15">
         <v>0.5</v>
       </c>
@@ -2707,7 +2717,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C34" s="10">
         <v>1</v>
       </c>
@@ -2733,7 +2743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C35" s="15">
         <v>0.5</v>
       </c>
@@ -2759,7 +2769,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C36" s="15">
         <v>0.5</v>
       </c>
@@ -2785,7 +2795,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C37" s="10">
         <v>1</v>
       </c>
@@ -2808,6 +2818,166 @@
         <v>1</v>
       </c>
       <c r="J37" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39" s="16"/>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="10">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10">
+        <v>3</v>
+      </c>
+      <c r="E39" s="10">
+        <v>9</v>
+      </c>
+      <c r="F39" s="10">
+        <v>7</v>
+      </c>
+      <c r="G39" s="10">
+        <v>9</v>
+      </c>
+      <c r="H39" s="10">
+        <v>7</v>
+      </c>
+      <c r="I39" s="10">
+        <v>1</v>
+      </c>
+      <c r="J39" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C40" s="10">
+        <v>1</v>
+      </c>
+      <c r="D40" s="10">
+        <v>3</v>
+      </c>
+      <c r="E40" s="10">
+        <v>9</v>
+      </c>
+      <c r="F40" s="10">
+        <v>7</v>
+      </c>
+      <c r="G40" s="10">
+        <v>9</v>
+      </c>
+      <c r="H40" s="10">
+        <v>7</v>
+      </c>
+      <c r="I40" s="10">
+        <v>1</v>
+      </c>
+      <c r="J40" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C41" s="10">
+        <v>1</v>
+      </c>
+      <c r="D41" s="10">
+        <v>3</v>
+      </c>
+      <c r="E41" s="10">
+        <v>9</v>
+      </c>
+      <c r="F41" s="10">
+        <v>7</v>
+      </c>
+      <c r="G41" s="10">
+        <v>9</v>
+      </c>
+      <c r="H41" s="10">
+        <v>7</v>
+      </c>
+      <c r="I41" s="10">
+        <v>1</v>
+      </c>
+      <c r="J41" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C42" s="10">
+        <v>1</v>
+      </c>
+      <c r="D42" s="10">
+        <v>3</v>
+      </c>
+      <c r="E42" s="10">
+        <v>9</v>
+      </c>
+      <c r="F42" s="10">
+        <v>7</v>
+      </c>
+      <c r="G42" s="10">
+        <v>9</v>
+      </c>
+      <c r="H42" s="10">
+        <v>7</v>
+      </c>
+      <c r="I42" s="10">
+        <v>1</v>
+      </c>
+      <c r="J42" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C43" s="10">
+        <v>1</v>
+      </c>
+      <c r="D43" s="10">
+        <v>3</v>
+      </c>
+      <c r="E43" s="10">
+        <v>9</v>
+      </c>
+      <c r="F43" s="10">
+        <v>7</v>
+      </c>
+      <c r="G43" s="10">
+        <v>9</v>
+      </c>
+      <c r="H43" s="10">
+        <v>7</v>
+      </c>
+      <c r="I43" s="10">
+        <v>1</v>
+      </c>
+      <c r="J43" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C44" s="10">
+        <v>1</v>
+      </c>
+      <c r="D44" s="10">
+        <v>3</v>
+      </c>
+      <c r="E44" s="10">
+        <v>9</v>
+      </c>
+      <c r="F44" s="10">
+        <v>7</v>
+      </c>
+      <c r="G44" s="10">
+        <v>9</v>
+      </c>
+      <c r="H44" s="10">
+        <v>7</v>
+      </c>
+      <c r="I44" s="10">
+        <v>1</v>
+      </c>
+      <c r="J44" s="10">
         <v>3</v>
       </c>
     </row>

--- a/歩行イメージ.xlsx
+++ b/歩行イメージ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="歩行" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
   <si>
     <t>前</t>
     <rPh sb="0" eb="1">
@@ -271,6 +271,13 @@
     <t>右</t>
     <rPh sb="0" eb="1">
       <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前傾</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -788,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:U45"/>
+  <dimension ref="B4:U50"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="I25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1957,6 +1964,125 @@
         <v>3</v>
       </c>
     </row>
+    <row r="47" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I47" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" s="11">
+        <v>0</v>
+      </c>
+      <c r="L47" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="M47" s="11">
+        <v>9</v>
+      </c>
+      <c r="N47" s="11">
+        <v>8</v>
+      </c>
+      <c r="O47" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="P47" s="11">
+        <v>7</v>
+      </c>
+      <c r="Q47" s="11">
+        <v>1</v>
+      </c>
+      <c r="R47" s="11">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="48" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="J48" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>2</v>
+      </c>
+      <c r="M48" s="11">
+        <v>9</v>
+      </c>
+      <c r="N48" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="O48" s="11">
+        <v>9</v>
+      </c>
+      <c r="P48" s="11">
+        <v>7</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="R48" s="11">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="49" spans="10:18" x14ac:dyDescent="0.15">
+      <c r="J49" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" s="11">
+        <v>1</v>
+      </c>
+      <c r="L49" s="11">
+        <v>2</v>
+      </c>
+      <c r="M49" s="11">
+        <v>10</v>
+      </c>
+      <c r="N49" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="O49" s="11">
+        <v>9</v>
+      </c>
+      <c r="P49" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="Q49" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="R49" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="10:18" x14ac:dyDescent="0.15">
+      <c r="J50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="11">
+        <v>1</v>
+      </c>
+      <c r="L50" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="M50" s="11">
+        <v>10</v>
+      </c>
+      <c r="N50" s="11">
+        <v>8</v>
+      </c>
+      <c r="O50" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="P50" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="Q50" s="11">
+        <v>1</v>
+      </c>
+      <c r="R50" s="11">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1968,8 +2094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2503,7 +2629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>25</v>
       </c>
@@ -2532,7 +2658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="C26" s="15">
         <v>0.5</v>
       </c>
@@ -2558,7 +2684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="C27" s="10">
         <v>1</v>
       </c>
@@ -2584,7 +2710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="C28" s="15">
         <v>0.5</v>
       </c>
@@ -2610,7 +2736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="C29" s="15">
         <v>0.5</v>
       </c>
@@ -2636,7 +2762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="C30" s="10">
         <v>1</v>
       </c>
@@ -2662,7 +2788,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>26</v>
       </c>
@@ -2691,7 +2818,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="C33" s="15">
         <v>0.5</v>
       </c>
@@ -2717,7 +2844,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="C34" s="10">
         <v>1</v>
       </c>
@@ -2743,7 +2870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="C35" s="15">
         <v>0.5</v>
       </c>
@@ -2769,7 +2896,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="C36" s="15">
         <v>0.5</v>
       </c>
@@ -2795,7 +2922,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="C37" s="10">
         <v>1</v>
       </c>
@@ -2829,17 +2956,17 @@
       <c r="C39" s="10">
         <v>1</v>
       </c>
-      <c r="D39" s="10">
-        <v>3</v>
-      </c>
-      <c r="E39" s="10">
-        <v>9</v>
+      <c r="D39" s="15">
+        <v>2</v>
+      </c>
+      <c r="E39" s="14">
+        <v>10</v>
       </c>
       <c r="F39" s="10">
         <v>7</v>
       </c>
-      <c r="G39" s="10">
-        <v>9</v>
+      <c r="G39" s="14">
+        <v>10</v>
       </c>
       <c r="H39" s="10">
         <v>7</v>
@@ -2847,8 +2974,8 @@
       <c r="I39" s="10">
         <v>1</v>
       </c>
-      <c r="J39" s="10">
-        <v>3</v>
+      <c r="J39" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
@@ -2858,14 +2985,14 @@
       <c r="D40" s="10">
         <v>3</v>
       </c>
-      <c r="E40" s="10">
-        <v>9</v>
+      <c r="E40" s="14">
+        <v>10</v>
       </c>
       <c r="F40" s="10">
         <v>7</v>
       </c>
-      <c r="G40" s="10">
-        <v>9</v>
+      <c r="G40" s="14">
+        <v>10</v>
       </c>
       <c r="H40" s="10">
         <v>7</v>
@@ -2907,17 +3034,17 @@
       <c r="C42" s="10">
         <v>1</v>
       </c>
-      <c r="D42" s="10">
-        <v>3</v>
-      </c>
-      <c r="E42" s="10">
-        <v>9</v>
+      <c r="D42" s="15">
+        <v>2</v>
+      </c>
+      <c r="E42" s="14">
+        <v>10</v>
       </c>
       <c r="F42" s="10">
         <v>7</v>
       </c>
-      <c r="G42" s="10">
-        <v>9</v>
+      <c r="G42" s="14">
+        <v>10</v>
       </c>
       <c r="H42" s="10">
         <v>7</v>
@@ -2925,8 +3052,8 @@
       <c r="I42" s="10">
         <v>1</v>
       </c>
-      <c r="J42" s="10">
-        <v>3</v>
+      <c r="J42" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
@@ -2936,14 +3063,14 @@
       <c r="D43" s="10">
         <v>3</v>
       </c>
-      <c r="E43" s="10">
-        <v>9</v>
+      <c r="E43" s="14">
+        <v>10</v>
       </c>
       <c r="F43" s="10">
         <v>7</v>
       </c>
-      <c r="G43" s="10">
-        <v>9</v>
+      <c r="G43" s="14">
+        <v>10</v>
       </c>
       <c r="H43" s="10">
         <v>7</v>

--- a/歩行イメージ.xlsx
+++ b/歩行イメージ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
   <si>
     <t>前</t>
     <rPh sb="0" eb="1">
@@ -279,6 +279,28 @@
     <rPh sb="0" eb="2">
       <t>ゼンケイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑧ダイナミックに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑨２の足けり少なく</t>
+    <rPh sb="3" eb="4">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pre1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -476,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -494,6 +516,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -795,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:U50"/>
+  <dimension ref="B4:U82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" topLeftCell="E55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2025,7 +2050,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="49" spans="10:18" x14ac:dyDescent="0.15">
+    <row r="49" spans="9:18" x14ac:dyDescent="0.15">
       <c r="J49" s="11" t="s">
         <v>12</v>
       </c>
@@ -2054,7 +2079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="10:18" x14ac:dyDescent="0.15">
+    <row r="50" spans="9:18" x14ac:dyDescent="0.15">
       <c r="J50" s="11" t="s">
         <v>13</v>
       </c>
@@ -2082,6 +2107,575 @@
       <c r="R50" s="11">
         <v>3</v>
       </c>
+    </row>
+    <row r="52" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I52" t="s">
+        <v>30</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="11">
+        <v>0</v>
+      </c>
+      <c r="L52" s="11">
+        <v>4</v>
+      </c>
+      <c r="M52" s="11">
+        <v>8</v>
+      </c>
+      <c r="N52" s="11">
+        <v>8</v>
+      </c>
+      <c r="O52" s="11">
+        <v>10</v>
+      </c>
+      <c r="P52" s="11">
+        <v>6</v>
+      </c>
+      <c r="Q52" s="11">
+        <v>2</v>
+      </c>
+      <c r="R52" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="J53" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="11">
+        <v>0</v>
+      </c>
+      <c r="L53" s="11">
+        <v>2</v>
+      </c>
+      <c r="M53" s="11">
+        <v>8</v>
+      </c>
+      <c r="N53" s="11">
+        <v>6</v>
+      </c>
+      <c r="O53" s="11">
+        <v>8</v>
+      </c>
+      <c r="P53" s="11">
+        <v>6</v>
+      </c>
+      <c r="Q53" s="11">
+        <v>0</v>
+      </c>
+      <c r="R53" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="J54" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" s="11">
+        <v>2</v>
+      </c>
+      <c r="L54" s="11">
+        <v>2</v>
+      </c>
+      <c r="M54" s="11">
+        <v>10</v>
+      </c>
+      <c r="N54" s="11">
+        <v>6</v>
+      </c>
+      <c r="O54" s="11">
+        <v>8</v>
+      </c>
+      <c r="P54" s="11">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="11">
+        <v>0</v>
+      </c>
+      <c r="R54" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="J55" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" s="11">
+        <v>2</v>
+      </c>
+      <c r="L55" s="11">
+        <v>4</v>
+      </c>
+      <c r="M55" s="11">
+        <v>10</v>
+      </c>
+      <c r="N55" s="11">
+        <v>8</v>
+      </c>
+      <c r="O55" s="11">
+        <v>10</v>
+      </c>
+      <c r="P55" s="11">
+        <v>8</v>
+      </c>
+      <c r="Q55" s="11">
+        <v>2</v>
+      </c>
+      <c r="R55" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I57" t="s">
+        <v>31</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K57" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="L57" s="11">
+        <v>4</v>
+      </c>
+      <c r="M57" s="11">
+        <v>8</v>
+      </c>
+      <c r="N57" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="O57" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="P57" s="11">
+        <v>6</v>
+      </c>
+      <c r="Q57" s="11">
+        <v>2</v>
+      </c>
+      <c r="R57" s="11">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="58" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="J58" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="L58" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="M58" s="11">
+        <v>8</v>
+      </c>
+      <c r="N58" s="11">
+        <v>6</v>
+      </c>
+      <c r="O58" s="11">
+        <v>8</v>
+      </c>
+      <c r="P58" s="11">
+        <v>6</v>
+      </c>
+      <c r="Q58" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="R58" s="11">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="59" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="J59" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K59" s="11">
+        <v>2</v>
+      </c>
+      <c r="L59" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="M59" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="N59" s="11">
+        <v>6</v>
+      </c>
+      <c r="O59" s="11">
+        <v>8</v>
+      </c>
+      <c r="P59" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="Q59" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="R59" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="J60" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" s="11">
+        <v>2</v>
+      </c>
+      <c r="L60" s="11">
+        <v>4</v>
+      </c>
+      <c r="M60" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="N60" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="O60" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="P60" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="Q60" s="11">
+        <v>2</v>
+      </c>
+      <c r="R60" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I63" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K63" s="10">
+        <v>102</v>
+      </c>
+      <c r="L63" s="10">
+        <v>307</v>
+      </c>
+      <c r="M63" s="10">
+        <v>920</v>
+      </c>
+      <c r="N63" s="10">
+        <v>716</v>
+      </c>
+      <c r="O63" s="10">
+        <v>920</v>
+      </c>
+      <c r="P63" s="10">
+        <v>716</v>
+      </c>
+      <c r="Q63" s="10">
+        <v>102</v>
+      </c>
+      <c r="R63" s="10">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="64" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="K64" s="14">
+        <v>114</v>
+      </c>
+      <c r="L64" s="14">
+        <v>337</v>
+      </c>
+      <c r="M64" s="10">
+        <v>920</v>
+      </c>
+      <c r="N64" s="10">
+        <v>716</v>
+      </c>
+      <c r="O64" s="10">
+        <v>920</v>
+      </c>
+      <c r="P64" s="10">
+        <v>716</v>
+      </c>
+      <c r="Q64" s="14">
+        <v>78</v>
+      </c>
+      <c r="R64" s="14">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="65" spans="9:18" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K65" s="14">
+        <v>266</v>
+      </c>
+      <c r="L65" s="14">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="66" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="M66" s="14">
+        <v>983</v>
+      </c>
+      <c r="N66" s="14">
+        <v>754</v>
+      </c>
+      <c r="O66" s="14">
+        <v>881</v>
+      </c>
+      <c r="P66" s="14">
+        <v>721</v>
+      </c>
+      <c r="Q66" s="14">
+        <v>182</v>
+      </c>
+      <c r="R66" s="14">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="67" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="Q67" s="14">
+        <v>51</v>
+      </c>
+      <c r="R67" s="14">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="68" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="Q68" s="14">
+        <v>46</v>
+      </c>
+      <c r="R68" s="14">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="71" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I71" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J71" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K71" s="17">
+        <v>102</v>
+      </c>
+      <c r="L71" s="17">
+        <v>307</v>
+      </c>
+      <c r="M71" s="17">
+        <v>920</v>
+      </c>
+      <c r="N71" s="17">
+        <v>716</v>
+      </c>
+      <c r="O71" s="17">
+        <v>920</v>
+      </c>
+      <c r="P71" s="17">
+        <v>716</v>
+      </c>
+      <c r="Q71" s="17">
+        <v>102</v>
+      </c>
+      <c r="R71" s="17">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="72" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="J72" s="1"/>
+      <c r="K72" s="18">
+        <v>114</v>
+      </c>
+      <c r="L72" s="18">
+        <v>337</v>
+      </c>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="18">
+        <v>78</v>
+      </c>
+      <c r="R72" s="18">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="J73" s="1"/>
+      <c r="K73" s="18">
+        <v>240</v>
+      </c>
+      <c r="L73" s="18">
+        <v>323</v>
+      </c>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+    </row>
+    <row r="74" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="J74" s="1"/>
+      <c r="K74" s="18">
+        <v>232</v>
+      </c>
+      <c r="L74" s="18">
+        <v>425</v>
+      </c>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+    </row>
+    <row r="75" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="J75" s="1"/>
+      <c r="K75" s="18">
+        <v>197</v>
+      </c>
+      <c r="L75" s="18">
+        <v>273</v>
+      </c>
+      <c r="M75" s="18">
+        <v>936</v>
+      </c>
+      <c r="N75" s="18">
+        <v>768</v>
+      </c>
+      <c r="O75" s="18">
+        <v>925</v>
+      </c>
+      <c r="P75" s="18">
+        <v>654</v>
+      </c>
+      <c r="Q75" s="18">
+        <v>134</v>
+      </c>
+      <c r="R75" s="18">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="76" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="18">
+        <v>42</v>
+      </c>
+      <c r="R76" s="18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="18">
+        <v>47</v>
+      </c>
+      <c r="R77" s="18">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="78" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="18">
+        <v>909</v>
+      </c>
+      <c r="N78" s="18">
+        <v>700</v>
+      </c>
+      <c r="O78" s="18">
+        <v>965</v>
+      </c>
+      <c r="P78" s="18">
+        <v>773</v>
+      </c>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+    </row>
+    <row r="79" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="18">
+        <v>814</v>
+      </c>
+      <c r="N79" s="18">
+        <v>698</v>
+      </c>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+    </row>
+    <row r="80" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="J80" s="1"/>
+      <c r="K80" s="18">
+        <v>107</v>
+      </c>
+      <c r="L80" s="18">
+        <v>228</v>
+      </c>
+      <c r="M80" s="18">
+        <v>882</v>
+      </c>
+      <c r="N80" s="18">
+        <v>776</v>
+      </c>
+      <c r="O80" s="18">
+        <v>886</v>
+      </c>
+      <c r="P80" s="18">
+        <v>650</v>
+      </c>
+      <c r="Q80" s="18">
+        <v>78</v>
+      </c>
+      <c r="R80" s="18">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="81" spans="10:18" x14ac:dyDescent="0.15">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="18">
+        <v>989</v>
+      </c>
+      <c r="P81" s="18">
+        <v>757</v>
+      </c>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+    </row>
+    <row r="82" spans="10:18" x14ac:dyDescent="0.15">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="18">
+        <v>982</v>
+      </c>
+      <c r="P82" s="18">
+        <v>612</v>
+      </c>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/歩行イメージ.xlsx
+++ b/歩行イメージ.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="43">
   <si>
     <t>前</t>
     <rPh sb="0" eb="1">
@@ -301,6 +301,60 @@
   </si>
   <si>
     <t>Pre1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走行５</t>
+    <rPh sb="0" eb="2">
+      <t>ソウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走行６</t>
+    <rPh sb="0" eb="2">
+      <t>ソウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走行７</t>
+    <rPh sb="0" eb="2">
+      <t>ソウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走行８</t>
+    <rPh sb="0" eb="2">
+      <t>ソウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走行９</t>
+    <rPh sb="0" eb="2">
+      <t>ソウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走行１０</t>
+    <rPh sb="0" eb="2">
+      <t>ソウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pre</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -363,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -494,11 +548,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -518,7 +598,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -820,10 +903,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:U82"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B4:U83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N81" sqref="N81"/>
+      <selection activeCell="R71" sqref="K71:R71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2449,11 +2533,11 @@
       </c>
     </row>
     <row r="71" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I71" s="10" t="s">
-        <v>32</v>
+      <c r="I71" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="J71" s="17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K71" s="17">
         <v>102</v>
@@ -2481,201 +2565,334 @@
       </c>
     </row>
     <row r="72" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="J72" s="1"/>
-      <c r="K72" s="18">
+      <c r="J72" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K72" s="21">
         <v>114</v>
       </c>
-      <c r="L72" s="18">
+      <c r="L72" s="21">
         <v>337</v>
       </c>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
-      <c r="O72" s="19"/>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="18">
+      <c r="M72" s="20">
+        <v>920</v>
+      </c>
+      <c r="N72" s="20">
+        <v>716</v>
+      </c>
+      <c r="O72" s="20">
+        <v>920</v>
+      </c>
+      <c r="P72" s="20">
+        <v>716</v>
+      </c>
+      <c r="Q72" s="21">
         <v>78</v>
       </c>
-      <c r="R72" s="18">
+      <c r="R72" s="21">
         <v>246</v>
       </c>
     </row>
     <row r="73" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="J73" s="1"/>
-      <c r="K73" s="18">
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="19"/>
+    </row>
+    <row r="74" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="J74" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K74" s="22">
         <v>240</v>
       </c>
-      <c r="L73" s="18">
+      <c r="L74" s="22">
         <v>323</v>
       </c>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
-    </row>
-    <row r="74" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="J74" s="1"/>
-      <c r="K74" s="18">
+      <c r="M74" s="20">
+        <v>920</v>
+      </c>
+      <c r="N74" s="20">
+        <v>716</v>
+      </c>
+      <c r="O74" s="20">
+        <v>920</v>
+      </c>
+      <c r="P74" s="20">
+        <v>716</v>
+      </c>
+      <c r="Q74" s="21">
+        <v>78</v>
+      </c>
+      <c r="R74" s="21">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="75" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="J75" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="18">
         <v>232</v>
       </c>
-      <c r="L74" s="18">
+      <c r="L75" s="18">
         <v>425</v>
       </c>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-    </row>
-    <row r="75" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="J75" s="1"/>
-      <c r="K75" s="18">
+      <c r="M75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="J76" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K76" s="18">
         <v>197</v>
       </c>
-      <c r="L75" s="18">
+      <c r="L76" s="18">
         <v>273</v>
       </c>
-      <c r="M75" s="18">
+      <c r="M76" s="18">
         <v>936</v>
       </c>
-      <c r="N75" s="18">
+      <c r="N76" s="18">
         <v>768</v>
       </c>
-      <c r="O75" s="18">
+      <c r="O76" s="18">
         <v>925</v>
       </c>
-      <c r="P75" s="18">
+      <c r="P76" s="18">
         <v>654</v>
       </c>
-      <c r="Q75" s="18">
+      <c r="Q76" s="18">
         <v>134</v>
       </c>
-      <c r="R75" s="18">
+      <c r="R76" s="18">
         <v>399</v>
       </c>
     </row>
-    <row r="76" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="18">
-        <v>42</v>
-      </c>
-      <c r="R76" s="18">
+    <row r="77" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="J77" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q77" s="18">
+        <v>42</v>
+      </c>
+      <c r="R77" s="18">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="18">
+    <row r="78" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="J78" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q78" s="18">
         <v>47</v>
       </c>
-      <c r="R77" s="18">
+      <c r="R78" s="18">
         <v>410</v>
       </c>
     </row>
-    <row r="78" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="18">
+    <row r="79" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="J79" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M79" s="18">
         <v>909</v>
       </c>
-      <c r="N78" s="18">
+      <c r="N79" s="18">
         <v>700</v>
       </c>
-      <c r="O78" s="18">
+      <c r="O79" s="18">
         <v>965</v>
       </c>
-      <c r="P78" s="18">
+      <c r="P79" s="18">
         <v>773</v>
       </c>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-    </row>
-    <row r="79" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="18">
+      <c r="Q79" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="J80" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M80" s="18">
         <v>814</v>
       </c>
-      <c r="N79" s="18">
+      <c r="N80" s="18">
         <v>698</v>
       </c>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-    </row>
-    <row r="80" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="J80" s="1"/>
-      <c r="K80" s="18">
+      <c r="O80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="10:18" x14ac:dyDescent="0.15">
+      <c r="J81" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K81" s="18">
         <v>107</v>
       </c>
-      <c r="L80" s="18">
+      <c r="L81" s="18">
         <v>228</v>
       </c>
-      <c r="M80" s="18">
+      <c r="M81" s="18">
         <v>882</v>
       </c>
-      <c r="N80" s="18">
+      <c r="N81" s="18">
         <v>776</v>
       </c>
-      <c r="O80" s="18">
+      <c r="O81" s="18">
         <v>886</v>
       </c>
-      <c r="P80" s="18">
+      <c r="P81" s="18">
         <v>650</v>
       </c>
-      <c r="Q80" s="18">
+      <c r="Q81" s="18">
         <v>78</v>
       </c>
-      <c r="R80" s="18">
+      <c r="R81" s="18">
         <v>400</v>
       </c>
     </row>
-    <row r="81" spans="10:18" x14ac:dyDescent="0.15">
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="18">
+    <row r="82" spans="10:18" x14ac:dyDescent="0.15">
+      <c r="J82" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O82" s="18">
         <v>989</v>
       </c>
-      <c r="P81" s="18">
+      <c r="P82" s="18">
         <v>757</v>
       </c>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
-    </row>
-    <row r="82" spans="10:18" x14ac:dyDescent="0.15">
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="18">
+      <c r="Q82" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="10:18" x14ac:dyDescent="0.15">
+      <c r="J83" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O83" s="18">
         <v>982</v>
       </c>
-      <c r="P82" s="18">
+      <c r="P83" s="18">
         <v>612</v>
       </c>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
+      <c r="Q83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2686,6 +2903,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:J44"/>
   <sheetViews>
     <sheetView topLeftCell="B9" workbookViewId="0">
@@ -3711,6 +3929,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/歩行イメージ.xlsx
+++ b/歩行イメージ.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="歩行" sheetId="1" r:id="rId1"/>
     <sheet name="旋回" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="決め打ち" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -385,7 +385,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +413,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -602,6 +608,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -614,6 +621,1499 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>129935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514599" y="866775"/>
+          <a:ext cx="7324725" cy="5263910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2257425" y="3657600"/>
+          <a:ext cx="962025" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スタート位置</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="3933826"/>
+          <a:ext cx="1724025" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>センサーで距離図る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>??</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5781675" y="3924301"/>
+          <a:ext cx="2209800" cy="742949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>決め打ちする場合</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・何秒で旋回</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・何アクション</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>歩数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で旋回</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9172575" y="4305302"/>
+          <a:ext cx="2038350" cy="371473"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>旋回は直角で出来るか</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>??</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>177545</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>79628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>232028</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165353</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="上矢印 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18531637">
+          <a:off x="8648699" y="3781424"/>
+          <a:ext cx="257175" cy="740283"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="上カーブ矢印 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="8058150" y="2876550"/>
+          <a:ext cx="1447800" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 37706"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+            <a:gd name="adj3" fmla="val 43333"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9429750" y="3819527"/>
+          <a:ext cx="2038350" cy="371473"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>旋回は大回りになるか</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>??</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>110869</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>117727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>165352</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>32002</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="上矢印 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18531637">
+          <a:off x="9267823" y="3133723"/>
+          <a:ext cx="257175" cy="740283"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>1978</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2420470" y="7832912"/>
+          <a:ext cx="3529854" cy="3262890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2386853" y="5804647"/>
+          <a:ext cx="3619500" cy="2190750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>437029</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>437029</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5905500" y="8863853"/>
+          <a:ext cx="0" cy="1109382"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5311588" y="9973235"/>
+          <a:ext cx="1086971" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>611841</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線コネクタ 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3346076" y="8848164"/>
+          <a:ext cx="3063689" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>616322</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>414617</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6084793" y="9166413"/>
+          <a:ext cx="1848971" cy="549087"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>高さ：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>300</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>68</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>68</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（予想）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　≒ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>440</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600635</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>85164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>320489</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>85164</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線コネクタ 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5385547" y="8153399"/>
+          <a:ext cx="1086971" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>611841</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>611841</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6080312" y="8130988"/>
+          <a:ext cx="0" cy="710453"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>410136</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>118784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>11207</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>163606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6562165" y="8187019"/>
+          <a:ext cx="1651748" cy="549087"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>首が稼働出来る高さ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>600</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>440</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>160</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>10644</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>136712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9580468" y="2321859"/>
+          <a:ext cx="2488267" cy="1039906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>旋回後の決め打ちはどうするか</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>??</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>旋回が直角か大回りかで違う。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コースに当たるまで進むか</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>??</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>センサー等で衝突回避するか</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>??</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>349622</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9919446" y="945216"/>
+          <a:ext cx="2451848" cy="758077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>首は第</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>セクター側から振ること。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スイングしてコースに当たらないか</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>??</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>特産物を置けるか</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>??</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>201707</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="下カーブ矢印 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7732059" y="1759323"/>
+          <a:ext cx="1355913" cy="437029"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>83970</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>405054</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142855</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="上矢印 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="14130540">
+          <a:off x="9374224" y="1225326"/>
+          <a:ext cx="257175" cy="1006884"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>121023</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>100293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8323729" y="8504705"/>
+          <a:ext cx="2422712" cy="583266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>首のアクションをどうするか決める必要がある</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -896,7 +2396,42 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:txDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+      <a:lstStyle>
+        <a:defPPr>
+          <a:defRPr kumimoji="1" sz="1100"/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
@@ -906,7 +2441,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B4:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R71" sqref="K71:R71"/>
     </sheetView>
   </sheetViews>
@@ -3932,11 +5467,17 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="23"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/歩行イメージ.xlsx
+++ b/歩行イメージ.xlsx
@@ -1386,16 +1386,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>611841</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>168089</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>107576</xdr:rowOff>
+      <xdr:rowOff>107577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>257736</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>107576</xdr:rowOff>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1403,9 +1403,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3346076" y="8848164"/>
-          <a:ext cx="3063689" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="2218765" y="8848165"/>
+          <a:ext cx="4191000" cy="4482"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1442,9 +1442,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>414617</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1454,7 +1454,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6084793" y="9166413"/>
-          <a:ext cx="1848971" cy="549087"/>
+          <a:ext cx="2039472" cy="728381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1487,6 +1487,18 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ゴールバー上の</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>高さ：</a:t>
           </a:r>
@@ -1539,7 +1551,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>440</a:t>
+            <a:t>440mm</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1549,16 +1561,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>600635</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>85164</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>313764</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>320489</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>85164</xdr:rowOff>
+      <xdr:colOff>331695</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1567,8 +1579,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5385547" y="8153399"/>
-          <a:ext cx="1086971" cy="0"/>
+          <a:off x="1680882" y="8583706"/>
+          <a:ext cx="4802842" cy="6723"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1599,15 +1611,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>611841</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>62753</xdr:rowOff>
+      <xdr:colOff>605117</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>611841</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:rowOff>100854</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1615,9 +1627,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6080312" y="8130988"/>
-          <a:ext cx="0" cy="710453"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6073588" y="8606118"/>
+          <a:ext cx="6724" cy="235324"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1741,7 +1753,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>160</a:t>
+            <a:t>160mm</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2111,6 +2123,448 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線コネクタ 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1680883" y="9984441"/>
+          <a:ext cx="694764" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>515470</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>515470</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1882588" y="9166412"/>
+          <a:ext cx="0" cy="795618"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線コネクタ 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1636059" y="9155206"/>
+          <a:ext cx="795618" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>392205</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="テキスト ボックス 38"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="168088" y="9278471"/>
+          <a:ext cx="1591235" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>バー中心までの高さ：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>300</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>54 = 354mm</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>バー上</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>までの高さ：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>300</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>68 = 368mm</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>96371</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>51546</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5564842" y="9278471"/>
+          <a:ext cx="4482" cy="690281"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>103094</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>107576</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>35857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5571565" y="8590429"/>
+          <a:ext cx="4482" cy="690281"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5468,7 +5922,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/歩行イメージ.xlsx
+++ b/歩行イメージ.xlsx
@@ -5922,7 +5922,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+      <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
